--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rfa56be7a2bf44878"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R8e2c062677e548f4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R8e2c062677e548f4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R59cbc65635c54c72"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R59cbc65635c54c72"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rd1d6063e08914a3a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rd1d6063e08914a3a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R911cf6f9c87e449e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R911cf6f9c87e449e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rb180037e87fd4ce8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rb180037e87fd4ce8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R6dbec58ea96d484a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R6dbec58ea96d484a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R96869d96a2ef4d3c"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R96869d96a2ef4d3c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R8d58ffbefade40ec"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R8d58ffbefade40ec"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R8e30069f743c4d2b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R8e30069f743c4d2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R2414352fa218448a"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R2414352fa218448a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R84dd6776632849c9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -37,7 +37,7 @@
       <x:b/>
       <x:sz val="16"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R84dd6776632849c9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R61e94a417b1e43f3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -37,7 +37,7 @@
       <x:b/>
       <x:sz val="16"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/009_CompleteStyling.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="R61e94a417b1e43f3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CompleteStyling" sheetId="1" r:id="Rc41691aa122e4353"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
